--- a/MadeMeSmile Reddit Data.xlsx
+++ b/MadeMeSmile Reddit Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,12 +521,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>My wife said I looked different. 72 days sober.</t>
+          <t>Bro learned from his mistakes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>midkni</t>
+          <t>serious_bullet5</t>
         </is>
       </c>
     </row>
@@ -596,12 +596,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bro learned from his mistakes</t>
+          <t>Made me smile nearly made me cry :)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>serious_bullet5</t>
+          <t>deimosx6666</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Made me smile nearly made me cry :)</t>
+          <t>I was having trouble coping with the loss of my grandmother, so my kids got me this little furball to cheer me up. He's waiting for a name...</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>deimosx6666</t>
+          <t>Intrepid-Everything</t>
         </is>
       </c>
     </row>
@@ -626,12 +626,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>First time eating ice cream</t>
+          <t>Single Penguin forgetting that he can just swim, makes a run for it after being stranded on ice!</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rachid90</t>
+          <t>becuziwasinverted</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>This really touch my heart</t>
+          <t>My daughters cake collapsed but we managed to fix it</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Life_Chicken1396</t>
+          <t>WalktoTowerGreen</t>
         </is>
       </c>
     </row>
@@ -656,12 +656,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Single Penguin forgetting that he can just swim, makes a run for it after being stranded on ice!</t>
+          <t>First time eating ice cream</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>becuziwasinverted</t>
+          <t>Rachid90</t>
         </is>
       </c>
     </row>
@@ -671,12 +671,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>My daughters cake collapsed but we managed to fix it</t>
+          <t>This really touch my heart</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>WalktoTowerGreen</t>
+          <t>Life_Chicken1396</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>I was having trouble coping with the loss of my grandmother, so my kids got me this little furball to cheer me up. He's waiting for a name...</t>
+          <t>My son just turned 2 but tonight he gifted us this picture we titled Deep Thought Toddler</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Intrepid-Everything</t>
+          <t>Just_Another_Frodo</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>My son just turned 2 but tonight he gifted us this picture we titled Deep Thought Toddler</t>
+          <t>This class response by Mike Tyson</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Just_Another_Frodo</t>
+          <t>Solo_Odyssey</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>This class response by Mike Tyson</t>
+          <t>This runner gave up on gold medal, but proved he has a heart of gold</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Solo_Odyssey</t>
+          <t>bamamabuam</t>
         </is>
       </c>
     </row>
@@ -731,12 +731,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>I've been depressed for a while. Finally got the courage to talk to my doctor about it. I told her I wanted to love things again. We agreed that doing art should be my goal. Here is hoping I can keep it up. Im feeling hopeful for the first time in a long time.</t>
+          <t>Dobby got a home and Dobby is loved</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>goldfishwishes</t>
+          <t>b_ub_u-1</t>
         </is>
       </c>
     </row>
@@ -746,12 +746,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Good Short Guy</t>
+          <t>I've been depressed for a while. Finally got the courage to talk to my doctor about it. I told her I wanted to love things again. We agreed that doing art should be my goal. Here is hoping I can keep it up. Im feeling hopeful for the first time in a long time.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>I-Am-Not-A-Hunter</t>
+          <t>goldfishwishes</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>This runner gave up on gold medal, but proved he has a heart of gold</t>
+          <t>Keep doing what makes you happy</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>bamamabuam</t>
+          <t>davidwallacecto</t>
         </is>
       </c>
     </row>
@@ -776,12 +776,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Dobby got a home and Dobby is loved</t>
+          <t>gym vlog hut for granma</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>b_ub_u-1</t>
+          <t>Mr_Cuddlebear</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Keep doing what makes you happy</t>
+          <t>Good Short Guy</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>davidwallacecto</t>
+          <t>I-Am-Not-A-Hunter</t>
         </is>
       </c>
     </row>
@@ -806,12 +806,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Said yes :)</t>
+          <t>Pretty good analogy for first time snow drivers.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>princxessmountain</t>
+          <t>Dapper-Masterpiece29</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>gym vlog hut for granma</t>
+          <t>Said yes :)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mr_Cuddlebear</t>
+          <t>princxessmountain</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pretty good analogy for first time snow drivers.</t>
+          <t>Sometimes Miracles are just Good people with kind hearts !!</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Dapper-Masterpiece29</t>
+          <t>Zee2A</t>
         </is>
       </c>
     </row>
@@ -881,12 +881,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sometimes Miracles are just Good people with kind hearts !!</t>
+          <t>Mama bear trying to make it's babies cross the road</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Zee2A</t>
+          <t>bisector_babu</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>I said yes :)</t>
+          <t>The man didnt care about his car - he cared about the boys safety</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tekensei</t>
+          <t>_NoU__</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mama bear trying to make it's babies cross the road</t>
+          <t>It never fails to make me smile that someone manager to rickroll Rick Astley himself</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>bisector_babu</t>
+          <t>The0Wolf1</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>It never fails to make me smile that someone manager to rickroll Rick Astley himself</t>
+          <t>I've seen this floating about for a while, it always makes me smile. How many can you find?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>The0Wolf1</t>
+          <t>Winter_Tip_9591</t>
         </is>
       </c>
     </row>
@@ -941,12 +941,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>The man didnt care about his car - he cared about the boys safety</t>
+          <t>Today, I'm starting to clean my depression away. More in captions &amp; comments.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>_NoU__</t>
+          <t>LilithFaery</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>I've seen this floating about for a while, it always makes me smile. How many can you find?</t>
+          <t>This local sports anchors take on morality in sports (Dallas, TX)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>bumtheben</t>
         </is>
       </c>
     </row>
@@ -966,7 +971,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Today, I'm starting to clean my depression away. More in captions &amp; comments.</t>
+          <t>His outlook on love and loss.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Poohbizzle79</t>
         </is>
       </c>
     </row>
@@ -976,7 +986,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>His outlook on love and loss.</t>
+          <t>Mother of all fluffiness-</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>myself_diff</t>
         </is>
       </c>
     </row>
@@ -986,7 +1001,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>This local sports anchors take on morality in sports (Dallas, TX)</t>
+          <t>So polite lol</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Fresh2020_</t>
         </is>
       </c>
     </row>
@@ -996,7 +1016,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mother of all fluffiness-</t>
+          <t>A little thing that helps so much</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>rosseepoo</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1031,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>So polite lol</t>
+          <t>The Tale Of Frodrick Of The Fence! (2:15)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>J_D_Bridge</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1046,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A little thing that helps so much</t>
+          <t xml:space="preserve">Saw the prices of eggs back to normal today! It most definitely made me smile! </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Rainbow62993</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1061,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>The Tale Of Frodrick Of The Fence! (2:15)</t>
+          <t>David Tennant's reaction to receiving a special recognition award he didn't know he was getting</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Hassaan18</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1076,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saw the prices of eggs back to normal today! It most definitely made me smile! </t>
+          <t>Kindness knows no boundaries: Man returns traveller's lost wallet. Credit: @StephandPete (yt)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Badam7276</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1091,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>David Tennant's reaction to receiving a special recognition award he didn't know he was getting</t>
+          <t>be happy</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vanceishere</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1106,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Kindness knows no boundaries: Man returns traveller's lost wallet. Credit: @StephandPete (yt)</t>
+          <t>There IS good in the world</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Blerrrrguinevere</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1121,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>There IS good in the world</t>
+          <t>Frog Mansion Pool Party</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>IRTIMD</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1136,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>be happy</t>
+          <t>Just reallly made me smile. Loving this for them.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>hasfeh</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1151,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Frog Mansion Pool Party</t>
+          <t>The best weighted blanket</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DovahkiinAF</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1166,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>The best weighted blanket</t>
+          <t>What an amazing woman</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PxN13</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1181,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Just reallly made me smile. Loving this for them.</t>
+          <t>Jack Black having fun with his dad.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>mindyour</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1196,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>What an amazing woman</t>
+          <t>Helping her old dog to still go on walkies</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>StcStasi</t>
         </is>
       </c>
     </row>
@@ -1124,9 +1209,10 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Jack Black having fun with his dad.</t>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Rich-Toe8650</t>
         </is>
       </c>
     </row>
@@ -1139,12 +1225,26 @@
           <t>All dogs deserve pets</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Jaquewacky</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Never forget the dog.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>IkilledRichieWhelan</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1152,7 +1252,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Never forget the dog.</t>
+          <t>Doggo just want to slide</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Rafikke</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1267,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Helping her old dog to still go on walkies</t>
+          <t>Cheering on Roomba-san!</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>13thFullMoon</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1282,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cheering on Roomba-san!</t>
+          <t>Theres a reason this hotel is popular</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>sklatch</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1297,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Doggo just want to slide</t>
+          <t>That smile at the end was genuine</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Le_Bush</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1312,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>That smile at the end was genuine</t>
+          <t>Frod gets a new home</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Cabra_da_Peste</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1327,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Frod gets a new home</t>
+          <t>This is what happiness looks like</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ComfortableNo2879</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1342,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Theres a reason this hotel is popular</t>
+          <t xml:space="preserve">The laugh at the end </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Mysterious-Ship2680</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1357,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>This is what happiness looks like</t>
+          <t>Little lamb</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>nikamats</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1372,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Little lamb</t>
+          <t>Ugandan children playing and having fun</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Rafikke</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1387,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ugandan children playing and having fun</t>
+          <t>While waiting for the school bus this morning, a bunch of heifers ran over to look at me!</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Modern-Moo</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1402,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">The laugh at the end </t>
+          <t>My handsome little guy</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Infinite-Ring-151</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1417,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>My handsome little guy</t>
+          <t>Tired</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>rebekka_xo</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1432,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>While waiting for the school bus this morning, a bunch of heifers ran over to look at me!</t>
+          <t>After immediately chastising myself for perpetually not being able to keep an yolk intact, a little encouragement appeared</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>bicycleday419</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1447,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>After immediately chastising myself for perpetually not being able to keep an yolk intact, a little encouragement appeared</t>
+          <t>chad dad</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Pythagorean_Triplet</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1462,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tired</t>
+          <t>Three Random People Collide (repost)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>FrenchieMama807</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1477,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Dont hit women</t>
+          <t>Italian man's first time at Bucca Di Beppo</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PxN13</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1492,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">green day pulls a fan out of the crowd, makes them perform and gifts them a guitar </t>
+          <t>Dont hit women</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>anirudhsky</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1507,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Three Random People Collide (repost)</t>
+          <t xml:space="preserve">green day pulls a fan out of the crowd, makes them perform and gifts them a guitar </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>aboodali000</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1522,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>brb just crying at work after someone complimented me. Reminder to recognise other people's hard work, it goes a very long way</t>
+          <t>Timelapse of last nights G2/G3 solar storm that had aurora so strong I could see it over Calgary looking SOUTH</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DancesWithWolfman</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1537,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">if this furry dude can smilen you can too. </t>
+          <t>The most unlikely of friends that are growing up together</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>crystalanne3</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1552,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>The most unlikely of friends that are growing up together</t>
+          <t>brb just crying at work after someone complimented me. Reminder to recognise other people's hard work, it goes a very long way</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ElonH</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1567,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Timelapse of last nights G2/G3 solar storm that had aurora so strong I could see it over Calgary looking SOUTH</t>
+          <t xml:space="preserve">if this furry dude can smilen you can too. </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>matri_xxx15</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1582,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aww, so sweet </t>
+          <t>Keanu Reeves</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Sufficient-Bug-9112</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1597,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>chad dad</t>
+          <t xml:space="preserve">Aww, so sweet </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>uchman365</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1612,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Keanu Reeves</t>
+          <t>My cat makes me smile.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Dubbyalicious</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1627,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Returning a dropped hat across multiple floors</t>
+          <t>Moms like here we go again with these two</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>kingston121</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1642,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Moms like here we go again with these two</t>
+          <t>Returning a dropped hat across multiple floors</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>username84628</t>
         </is>
       </c>
     </row>
@@ -1425,6 +1660,11 @@
           <t>The kid's affection is priceless</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Rachid90</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -1432,7 +1672,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>My cat makes me smile.</t>
+          <t>Unexpected dance partner !</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>basicallypervert</t>
         </is>
       </c>
     </row>
@@ -1445,6 +1690,11 @@
           <t>smart pupper</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Anonymous___1999</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -1452,7 +1702,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Italian man's first time at Bucca Di Beppo</t>
+          <t>(Long video heads-up)Skinny abandoned pitbull gets everything she ever dreamed of.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Reddit_Survivor9</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1717,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>My cat is slightly cross-eyed. It makes me smile.</t>
+          <t>The best present for your kids is to always be there for them.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>-CharacterX-</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1732,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Unexpected dance partner !</t>
+          <t>A sleepy fluffball</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>theofrustratus</t>
         </is>
       </c>
     </row>
@@ -1485,6 +1750,11 @@
           <t>Having a clean tea space  r/teafriends</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ToTeaTogether</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -1492,7 +1762,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>The best present for your kids is to always be there for them.</t>
+          <t>I did my first ever sub 10 minute mile today!</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ThePigglyWiggly0</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1777,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>I did my first ever sub 10 minute mile today!</t>
+          <t>Kind Indian guy returns lost Wallet to Foreigner.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ClickJolly</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1792,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>A sleepy fluffball</t>
+          <t>My cat is slightly cross-eyed. It makes me smile.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Dubbyalicious</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1807,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>(Long video heads-up)Skinny abandoned pitbull gets everything she ever dreamed of.</t>
+          <t>Dance!</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Caratteraccio</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1822,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Dance!</t>
+          <t>An attempt</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Living_Swing9680</t>
         </is>
       </c>
     </row>
@@ -1545,6 +1840,11 @@
           <t>W friendship</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Horror-Entertainer65</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -1552,7 +1852,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Kind Indian guy returns lost Wallet to Foreigner.</t>
+          <t>Friendship in Hollywood</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Kelmo7</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1867,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>An attempt</t>
+          <t>We had a ton of snow and I saw the shoveling crew jumping off the fence and doing snow angels.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>slakisdotcom</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1882,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Friendship in Hollywood</t>
+          <t>My sister's dog and I hadn't seen each other in 6 months. I've never felt more loved.</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>onlyonedayatatime</t>
         </is>
       </c>
     </row>
@@ -1585,6 +1900,11 @@
           <t>Gotta floof those feathers</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>lnfinity</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -1592,7 +1912,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>We had a ton of snow and I saw the shoveling crew jumping off the fence and doing snow angels.</t>
+          <t>When you're singing loudly in the audience loving life and everyone goes quiet...</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Hassaan18</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1927,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>My sister's dog and I hadn't seen each other in 6 months. I've never felt more loved.</t>
+          <t>Hulu Show The Rookie bought my product (an ocean felt wall toy) and used it in S5E8! Made my day!</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>emiscrafty</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1942,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Hulu Show The Rookie bought my product (an ocean felt wall toy) and used it in S5E8! Made my day!</t>
+          <t>My 3yo daughter knows where her loyalty lies</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>JephriB</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1957,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>When you're singing loudly in the audience loving life and everyone goes quiet...</t>
+          <t>I got closure for losing my dog three weeks ago yesterday. Lost my dog 2-10-22 and wanted a memorial piece for him. 2-4-23 I got this for him. slowly moving on and healing from the loss of my best friend of almost 14 years.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Time_Ad636</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1972,7158 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>I got closure for losing my dog three weeks ago yesterday. Lost my dog 2-10-22 and wanted a memorial piece for him. 2-4-23 I got this for him. slowly moving on and healing from the loss of my best friend of almost 14 years.</t>
+          <t>(oc) Helpful little girl found the leaky sprinkler and sister looks proud lol</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>MrBeastwood7412</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>The saga of Frodrick</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>mr_cobweb</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>OP is the real ice cream fairy</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>WarningCurvesAhead</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Miniature cow named Annie has a photoshoot for her first birthday she loved her balloons (OC)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>mini_moo_crew</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>woof woof</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>rebekka_xo</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Baby Turtle Spa Day is taken very seriously at the Ogasawara Marine Centre...</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ArwenandEowyn</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>The Biggest Cat and the Biggest Dogs are the Bestest Buddies.</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Blacktiger75</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>meirl</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Backware01</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>There was a cat</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>King_Pee</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bundesliga fans tryna be quiet </t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Dog Best Friends Reunited After Months Apart</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Found these guys at the beach</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Dad gets emotional listening to Tupac song to his mother for the first time</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Much Needed Daddy-Daughter Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>My pet rat French Fry is learning to play basketball!</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Baby Turtle Spa Day is taken very seriously at the Ogasawara Marine Centre...</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Playing with the doormat</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What an adorable moment </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Guy makes insane house for a frog</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>No trees were harmed during the making of this video.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>how did she sign nvm (copied from twitter : @vidsthatgohard)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Humanity has no price.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>so true</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>this vid's so cuteeee</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Besiktas fans throw thousands of toys onto pitch as donation to children impacted by earthquakes in Turkey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Extending more help</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hes just SO thankful  Belongs here! </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>We Boys are Scared in the Dark As well</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>the happiest french kid</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Found &amp; returned 3 phones while diving in Lake Natoma! 1 with an absolutely insane story behind it!</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Twins!</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Hopefully my animals will put a smile on your face</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>How many times have you watched this video. Me: YES.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">this woman means so much to me  she saved me from a path of destruction </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Ok, I did it wrong before. TSC donated a bunch of pet food when my husband asked for a case discount. Shoutout to Chris Morrison in West Lebanon NH for supporting the Upper Valley Humane Society</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>After being lost for seven days while on vacation, my moms dog was able to find her own way home</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>A Ukrainian reporter hugs Volodymyr Zelenskyy during a news conference</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Back of my cereal box made me smile</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Getting along nicely</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Daddy! I got a tattoo just like you!</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">How would you caption this pic (just my husband building sandcastles with the kids in Hawaii </t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>a customer's child gave me this the other day and genuinely made my day!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>I'm glad to announce that after years of being depressed, I am finally getting the help I need!</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>I wrote this little note for my husband when this video came out (2018). I recently found it has been in his wallet since then. What a guy!</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>This was taped to our door when I came in this morning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Shredding Cheese</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>indian wedding, cinematic edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Husband and I got matching thematic tattoos to celebrate our wedding! We meant to get them in October of last year when we got married but timing just wasnt right. Today is day one and theyre looking amazing! Already planning our next pieces with our new artist!</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>You are worthy</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>I love this spider. He's hilarious.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">He loves her, body and soul </t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Fans of Beşiktaş and Antalyaspor shower the pitch with toys to donate to young survivors of the earthquakes in Turkey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BABA MAMA </t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>[OC] (forgot to flair first time). My Papaw passed away from cancer in 2017 and my Grandma had their wedding rings melted together and made necklaces for my sister and me. I thought I lost mine in a move four years ago. I was devastated. I found it though! Never taking it off again.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>the look in his eyes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>A heartwarming letter written by the father of Dan Burn, a soccer player for Newcastle United, who started in Newcastle's first cup final in decades on Sunday</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>I like how he is more happy in the second one</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>90 year old man comes out as gay</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>WWE Cody Rhodes makes kid's day</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Ahhh what witchcraft is this</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>My gift</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>I got David Vincent (VA for Robin from Fire Emblem among other things)s signed VIP pass from Anime Crossroads this weekend!</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Toys thrown to pitch by Besiktas fans for children affected by Turkey earthquake</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>This is beyond wholesome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Relationship Goals</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Dad to be so happy he does a routine</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Pudding decided she wanted to try eating my hand. She didnt get too far, but she tried her best!</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[OC] Rascals finally getting along </t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Carrot peek-a-boo</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>High school students raise $260,000 for elderly custodian so he can retire</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>just follow me...</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>One of the guys I've been playing D&amp;D with for the last 3 years got a life saving kidney transplant last month. We're meeting tomorrow to resume our game. It's the first time I'll see him since the surgery. I decided to show him how much he means to me with a cake.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Absolutely adorable!</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Our 2 Day Old Baby Goat Got Stuck In A Hole In A Tree</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Dance Like No One Is Watching</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>The best surprise</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Chill</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>My Mom found this in our basement. It's a letter my Sister wrote to me before I was born.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>First bite of my apple made a heart shape.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>I had to muster up the courage, but today I finally went to the bathroom! Its the little achievements :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Archaeology is amazing</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Dang out of nowhere! This made my day!</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Blind and deaf dog recognizing its favourite person using smell</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Cleaning and recycling more than 2400 kg of plastic</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>&gt;Insert Caption Here&lt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Shania Twain Reacts to Anti-Drag Legislation: We Need Drag Queens to Share Their Talent With Us  She also sang label-mate Kim Petras' praises in a new interview with GLAAD.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Snow plow drove by, saw me struggling, and cleared the front of my driveway. What a hero!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A lil fighter </t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Mister Fred Rogers tells an inspirational story about the Special Olympics</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>DoorDash driver  The ending is what gets me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>A wholesome post to brighten your day</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Stop and Smile</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This girl has my heart </t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>my neighbor brings beer and pizza to my parents</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Haven't gone a day without heavy drinking for the past half a decade. Woke up once on the floor in a puddle of you know what and decided I needed to change. I spent a few days in hospital with severe withdrawal symptoms. Today I am officially seven days sober. Going to my first AA meeting tomorrow.</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When you get proof you're with your soulmate </t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My first diving experience! That was scary, but interesting </t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Just another day in Florida</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Isnt in the circle yet</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Had a really good time out to eat with my boyfriend. Went a little crazy at the crane game but it was worth it  I also got my boyfriend a Whis one that I'm pretty certain is a Funko </t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Besiktas, Turkish Football club fans threw hundreds of children toys for the kids that were affected by earthquake</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This baby girl loves The Beatles </t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>When your favourite human comes home</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Why LGBTQ advocates support clarifying Utahs ban on conversion therapy  We are protecting our kids, and most importantly, we are sending the message to LGBTQ kids throughout the state of Utah that they are not broken, one father told lawmakers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Turkish soccer fans donating toys for the young earthquake victims (link to full video in comments)</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Animal Speak </t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Boy with cancer asks comedian Russell Howard to attend his funeral but he has one special request</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>found a kids birthday presents on the highway in the rain. was able to use social media to find the parents. was able to get the gifts back today.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>I met a woman on Reddit. She lives 3000 miles away. I flew out and saw her!</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Occupational therapy progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Kid cosplays as Kevin from The Office</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>When your sonss number one saying is Babylets go bye bye and he also likes to be a goof ball</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Caring Pediatric Surgeon Rides to Surgery With Nervous Children</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Made me smile and cry. My 9 year old with Spina Bifida. He never gives up, just like his uncle with muscular dystrophy who tragically passed away 2 years ago.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>A regular at a Chinese Takeaway was sick.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Girl dads are honestly so cute sometimes</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>My baby has started answering questions with yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>After 7 years in AZ and losing 100lbs over the past 12mo. , I made it to the top of Camelback!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Proof that gifts can help the people who receive it and the people who gave it</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>I haven't been on a plane in over a decade. Today I got to take this time-lapse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Bubble Boy</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>A brutally honest lawn mowig business.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>woew</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>(Before and after) Wisdom tooth extraction fixed my face muscles! I can smile a full smile!</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>To love a, love a, loovvvee a care bear!</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>The nostalgia this single image gave me is unreal</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Baby Gorilla notices his dad shivering from the cold, as they're waiting to go back inside</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>When you can show your parents how much of a badass you really are!</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>The most romantic thing</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Besiktas fans throwing toys for kids who suffered from the earthquake at the 4:17 mark</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Little girl with her toad, at the children's pet show, Venice Beach, California, 1936.</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Turkeys playing with their ball</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Respect for this guy</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>We are getting a new couch! We have only had 2 recliners for the last 2 years. It will be here monday!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Asking her grandma to be her maid of honour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Try not to smile.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>These ducks breaking through a layer of ice</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Philippine villagers relocate a widowers home so he could live closer to family. The journey took 2 hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>i know they're a big corporation and notorious for this kind of stuff but this came out of nowhere and made me so happy</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Man getting caked on his birthday.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>This post about a little bird (identified as an American Dipper) was just so cute this morning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Cant help but smile when getting snuggles</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Turn around.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>You dont have a double chin</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>A border collie carefully guides a bunch of little ducklings into a puddle of water.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>king crab after a long day outside</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Dont let his cuteness fool you. Inside lurks the heart of a real jerk. But hes a loveable jerk.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Messing around, not a care in the world</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>After months of feeling incapable of doing anything, I finally got medicated. Here's my room before and after :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>For 3 Hours Doctors Continued CPR on Toddler with No PulseUntil Life Returned</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Go shorty!</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Rocky's cat</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Had a movie date with my mom. Took her to see 80 for Brady. I think she enjoyed herself</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Just peeking to beg for a bite of my bagel</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Was able to help a 2nd cousin find relatives shes been searching for for the last few years through 23andme  feeling really giddy, Im so happy for her</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>pregnancy announcement gone funny . I cant stop smiling at his reaction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Crafty gifts from a friend</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Girl posted about her dad's book that hadnt gotten any sales in 11 years and it went viral and is currently the number 1 book sold on Amazon. It sold 65k copies in two weeks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Now whos a good boy?!?</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>During a miserable commute, I saw this</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Magic Gender Reveal</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>My son just posted his first YouTube video. He did the screen recording, voice over, and editing all by himself! I've never seen a kid more proud in my life.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Burping your husband so he can sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Baby Got Back And ASL</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Woman responds to wasteful food videos by feeding children in need</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>To cute</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>My dad did not like ehen i got my second cat, 6 months ago, but this is Them together a couple of weeks ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>My wife hasnt taught in over a decade, and was nervous to go back. A student wrote a letter to her, addressed to the school, and she brought it home and opened it this morning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Little kid bringing in a huge fish</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Woman responds to wasteful food video by feeding children in need</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Sheep be like, keep up lil potato, we'll go slow for you</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>First time winning</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i hadnt checked the app in a really long time and i hit 5 months </t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Whos cutting onions </t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Asian reporter</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Change Can Be Scary, But Its Easier With Just A Little Kindness</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>NBA star James Harden FaceTimed 1 of the MSU students who was shot &amp; paralyzed from the waist down on Feb. 13 after learning he is a fan</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Only in Arab countrys , they shout out for a miss phone to find his owner </t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>I carried him and now 14 years later, he carries me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>lil man catch a huge fish</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Sweet brothers</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>This brought tears to my eyes</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Laugh. Have fun and dance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Paraplegic boy taken to a skatepark</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Waking up with my boy Veto Purleonne aka The Veets</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Bfs 4 Eva</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I do the same thing </t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Magic will get up from basking in the sun if you let her know its time to come in</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>This is the light switch for the bathroom of a hospital game, The switch is its nose, I played this game as a kid and I never noticed this, I am now going to scan everything for hidden smiley faces because I have since found a smiley face clock in the game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>i miss my dad so much and i found an old picture of him on my phone. when i look at myself in the mirror i see him and idk why but its comforting. i miss seeing him :/</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>A tough crowd</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Thank you u/mich0329, i had a long day and this is just what i needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Without Notice, Roofers Applying Coating to Nearby Unit Put Giant Bags Around Mine and Other Cars.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Bird sorting coloured balls of yarn</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Animal meets this random person and instantly forms a bond with him</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Elder sister coaches her sis how to wrestle</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Funny in dangerous road crossing</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>She's got something in her hair</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>There IS good in the world</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Relationship goals</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>All animals are such a gift :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>When Rishi Sunak came and held a press conference, a Ukrainian reporter becomes overwhelmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>I adopted an amazing dog at the end of May. I've probably lost about 30 lbs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>The Highest Achievement of My Nerd Life</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>He's a paid actor</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Thought this audio was perfect for this video of Donnie sneakily watching birds lol</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Ganbatte, Roomba-san</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>I liked someones 9 year old comment and they liked my response</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>We are all made of stardust... Tiktok User: Annalaura_art</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>keep your eye on the ball</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>(OC)Me On A Cold Day....</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>My granddaughter, nothing makes me smile more than her laughter. I loves you piggy</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Shoutout and love to all the gas station clerks!! The relationship you build with the gas station clerk by your home definitely hits different.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>she's a nastermind</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Just in case you wondered what happened to Billy from Polar Express looks like hes on Wheel of Fortune!</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Winning 3.6M on roulette with friends.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(OC) My darling granddaughter with her two best friends. Makes my heart happy </t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Always nice to be recognized</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Man raises over $48 thousand on Tiktok and Gofundme to by a taco vendor his own food truck.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Disabled turtle receives new set of wheels from 1st Lego League in Mississippi</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Finally, we found the Gigachad in flesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>from a photo in r/MadeMeSmile</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This video made my day. Jack Dawson love </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Family time</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Great way to start my Saturday morning. Thank you, Universe </t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>This is Aria. Our neighbors tell us that she sings whenever we leave. This is her singing!</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Sharing Skates</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Dancing into retirement</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Lambs rescued from the earthquake debris 11 days later</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>They caught the guys that painted over the Ghibli Studio mural and it will be repaired</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>If it swims in the Sea and cuddles you like a Puppy, that's a Moray!</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Robert Irwin tears up watching a special 19th birthday message from late dad Steve</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>9 Year Old Recently Graduated from High School</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>[OC] Enjoy a small piece of my rescue dogs 4th birthday party!</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Randomly came across one of the best responses to an AskReddit question I have ever seen that touched me and absolutely shook me to my core. Love you Mom!</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>My wife and I stumbled upon renewing your wedding vows in Times sq on Valentine's day, on our 1st anniversary. So, we went back for our 5th and an old friend with a real camera happened to be there.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>it's okay to ask for help</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>I made my dad listen to Minecraft OST and he liked it very much</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Women rescues a giant moth but it doesn't end there...</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Reminds me of fishing with my mom and dad when I was younger</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>This heifer loves to get attention! She always follows me around so that she can get some scratches</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Anonymous UBC student hides over 100 gift cards across campus</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Cute</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Hobocat and the American Dream - second painting I made of him and I'm pretty stoked.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Found some unexpected line in my espresso cup this afternoon</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>13-year-old blind girl plays a Chopin piece leaving Mika and Lang Lang speechless</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>My sweet pet rat Donut doing her back around a circle trick...I think we may need to practice a bit more lol!</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>I had to order cough drops for my mother, as you cannot find sugar free ones anywhere around me. They helped out by hooking her up with more than were ordered, big ups to the nice sellers out there. ( was removed from humans being bros, guess it's not bro enough) mom is happy tho all that matters</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>My little girls make me happy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>This is probably some orphancrushing machine material, But I found out today that my grandfather said good morning to my father every day, and continued to do so even after he went from house arrest to prison after more than 5 months.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Airline returns toy that was left behind on a plane</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>The story of 75 year old Fuminori Tsuchiko from Japan, who lived in the Kharkiv subway for months during the war. He went out to get food for residents under shelling and helped in any way he could.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>A Hat for Peace &lt;3 and Smiles</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Teammate enthusiasm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Moved out for the first time, still anxious about just doing adult things, but made my first cooked meal in my house :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Felt a good vibe hence shared, inform if done earlier as well</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Figure skater Starr Andrews and her reaction to her scores</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>After constant rejections, I finally got to donate blood again :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>MUSKITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Put a pillow and laptop on top of him and he just fell asleep. It's been 45 minutes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Harmonica!</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Blended family, 2 kids each and all laughing together. A memory that'll always make me smile.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>[Olivia Garvey] MUST SEE! Keivonn Woodard (A deaf hockey player &amp; The Last of Us actor) meets his idol Alexander Ovechkin</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Cooking makes me happy when not much else does. Perfecting Birria is better than meds :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>My Uncle remembered my dogs birthday</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>A wholesome video for anytime of the year.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>This guy parading on the streets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>This letter my sister and nephew received from an older couple they met on a recent cruise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I just passed my outdoor powerchair driving test!  Its a small thing but I can go out again </t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Pure innocence</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Coworker made this for my stepson</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>God Bless Mike</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>My man surprised me with a winter trip to the Grand Canyon. He's not into hiking at all but he did this for me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Always give pets</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>After two years of trying to find the right spot in my house, my peace lily from my great uncle's funeral is comfortable enough to bloom</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>first time seeing snow</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Such a simple but wholesome moment between strangers</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Doggie snow tunnel</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Oh grammy!</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Best cop in town</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Noodle eating competition</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Small child thinks this broken water heater is a robot</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>After wanting one for years and battling an autoimmune disease I was finally gifted a ps5</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>This is how I wanna spend winters</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Pigs just want to have fun</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>wholesome</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Have a nice, happy and FUNNY weekend everyone!! And keep Shining Also Keep Smiling:))</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>A panda sitting in a pool twiddling its legs</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Thank you Zelda may his comedy and lessons continue to guide you</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Let the boi have his toy</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Just bought my son McLovin licence from his favourite movie. Its a small thing but he will be so happy and Im so happy to give it to him </t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Smile and a coffee</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>My firstborn wore the same outfit home from the hospital that my wife did almost 31 years ago.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Lucy (13) who is blind, non-verbal and neuro diverse playing the piano.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>and thats how you start a fight</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>This moment was the best part of visiting Myanmar a few years ago before the military coup. The student monks were taking photos of me while I took photos of them. Everyone was giggling without saying a word to each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>My in laws spicy chicken</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Just found out I got the job!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis got his first hydrotherapy funded by donations! </t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>A thoughtful doctor</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Cow thinks he is a showjumping horse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Pspspspsps</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Yes, I text my father gifs of Indiana Jones telling him its eleven o'clock every day at eleven o'clock.</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Cow thinks he is a showjumping horse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Rockin' RV!</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Pssst. I hope you had a wonderful day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Big fan</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Ken Sema, a Swedish football player who suffers from stuttering had the courage to make a post-game television interview after his team's win against West Brom sending a message to the world that those who suffer from this disorder shouldn't be embarrassed to go out and speak with confidence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>My mom knit some things for my unborn son, including a blanket with mama, papa, baby, and dog. I love that she included my dog son.</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>He's living his best life and that makes me so happy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Feeding a squirrel and other interested parties in the park.</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Up close and personal with SoBe and his little dirt hat</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Baby elephant inspects her caretaker at the Reteti Elephant Sanctuary</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Nicknames and Superheros.</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>one year ago I put out a fire to a strangers home, today they returned the favor and I am shocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>I think that this heifer has a silly reaction to scratches</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>My grandma and my great aunt hugging after not seeing each other for years</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Fantastic Story and I laughed way too hard at how the headline makes it sound like he beat cancer just to participate in the challenge</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>The farmer rescued and treated the injured Crane last year, Crane has been following him everywhere and staying with him since then :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Mickey Mouse I made for my nephews third birthday. [OC]</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Dogs are the best therapy. No one will convince me otherwise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Goose vs. Tiger</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Cute bird bath</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>My dad meeting his first grandchild (kid is going to be spoiled by everyone)</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Chocopie has had one hell of a trip to the vet! Vietnam Animal Aid out here doing THE LORD'S WORK. Donations appreciated &lt;3</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Were approaching 2 months in with a sibling foster pair we intend to adopt. The sign was sweet, but I wish we would have read it before their social worker arrived! Enjoy the other pics of our new family.</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>first time seeing snow</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>This always cheers me up :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>:)</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Don't Fight Fire with Fire... Fight it with a Good Sense of Humor and More TP</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Former MiLB player, Angelo Cuevass reaction to getting his rookie card is awesome. I love this sport/hobby</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Just out here being nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Robin Williams: Rodin statue @ Stanford</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>The cake I made for my 1 year old's birthday tomorrow</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Stand with Ukraine. Stand on Putin</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Baby outsmarts security guard to enter the zoo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>My wife and our dog Cannoli. Not sure whos happier to see each other after a long day of work</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>He didn't hesitate at all</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Your Weekend Forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>The most unsuccessful sneak attack of all time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Vegetables Crisis. Cucumber drama</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>I laughed harder than I should have. TADAAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>My smart pet rat Potato is learning flyball!</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Thai Elvis impersonator</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>The feral kitties we feed (and want to TNR) brought a toy mouse with a Santa hat to our back door.</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>The Artwork of the little 1 woth the mess on her whiteboard to her Mom &amp;Dad</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>someone left tomatoes for this rabbit/hare</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>My 4 year old drew this all on her own today, and Im very proud. A month ago she was just scribbling still. Im so very proud of her!</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>An announced gauest to the treat</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Double trouble</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>After years of pain, MRI showed abnormalities in rectum area, CT w/ contrast did not. Of course I had to make jokes with my nurse mother about how they described my organs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>My 14 year dog is reaching the end of her life and was jealous when our baby was born 2 months ago. Today, out of the blue, she laid down at the babys feet kind of protecting her.</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>I have been super stressed out by school lately and I just found this research that my dad has been doing to try to be able to help out. I love him so much!</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">its my cake day ! </t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Chaotic good hacker</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>I am excited and terrified</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>After 22 years..... I'm finally 100% debt free! [OC]</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>a book about poop.</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Family surprises boy with new puppy</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Michael Reagan, Adopted son of President Reagan, bonding with Brad Paisley on Twitter over his dad's favorite cheeseburger joint.</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>My dog's snoot in a pineapple ring</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We adopted puppies and our 13 year old dogs face says it all </t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>I made my dad this sticker seven years ago- I just noticed he still uses a magnet to put it over his desk.</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>It's been almost five years since I started a voiceover career at the age of 40.</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>I had wls last year and am now the smallest Ive been in my adult life. I went from size 22 and now I am almost in an 8. Im hoping this helps many of my health issues as it has already helped my self esteem and pcos symptoms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>His bed is right there</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>someone's not gonna share...</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Coolest dude.</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Big Bear CA Bald Eagle Shift Switch (Recorded Off YouTube Live Feed Just Now!)</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Creative kid, supporting parent!</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>My husband ordered us pho. I told him he should add more to the description of the car...</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Paralympic medalist Blake Leeper inspires a boy using a prosthetic leg for the first time</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>My dad and I were estranged for 10 years. Look at us now, three generations together. I cant tell you how complete this makes me feel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Kids reaction to dapping up Kevin Durant</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Celebrating my rescue dogs 4th birthday tomorrow and decided to get a cake for the humans to enjoy also. Going to decorate it with Scooby Snacks in the morning to fit the occasion!</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>After battling depression and COVID Im finally getting back to school!</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Yesterday was my first time using a Cricut and made an officers uniform for our little Lieutenant commander. Now he can feel free to boldly go</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Happy birthday me</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Rescued Elephant calf a tiger reserve enjoying afternoon shower, once she attains 2yrs; She will be rehabilitated back to semi-wild elephants camps.</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Snow/ice day, no school. Son's (11 yr old) shop needed cleaning and we accomplished just that!</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Sister surprises brother with Down Syndrome with pregnancy announcement</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is Amina. A 10 year old refugee girl from Ukraine who I've known since summer. I help her family get used to life in Denmark. She is my little ray of sunshine, and helping her and her family has changed my world for the better </t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">She looks so proud </t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>made by my daughter 10 y</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Notoriously Gloomy Rockstar just being a cool dad at Disney World.</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My three year old made me a flower. </t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>My sister saw that I am having a bad time and a bit depressed of life, she did this. (Love you my dear sis )</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Dad finds out his anonymous kidney donor is his daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[OC] Casual crowd gathered &amp; listening to street artist </t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>To intimidate tourists</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Lewis Capaldis fans helping him finish signing as he struggles with Tourretes</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>My Stoic Father Holding My Daughter At Their House for the First Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>This is my cat Toby. Hes funky (cool cat) dorky super sweet and sour when you least expect it this is him posing when he realized I was pointing my phone at him</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>A 2 year old practising her intro before she enters her classroom</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shite got shitted </t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We got married on Valentines Day we cant have children and our fur daughter was our flower girl </t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>You don't understand</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Skater rescuing a bunny</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Mass nesting of Olive Ridley turtles in Odisha,India!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Never stop the grind</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Family goals</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>I was watching breaking bad and my cat fell asleep on me</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>here is another wedding photo of us :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>After the rescue service from Mexican dogs, Turkey did not allow the rescue dogs to travel back to their home countries in the baggage hold. They came home on Turkish airlines in first class seats.</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>No stress</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Finally packing away my cloth masks. Many are tied to memories chronicling the triumphs and traumas of the past 3 years from which so many are still trying to recover. Beautifully simple-yet-profound symbols. Putting away this colorful box of cotton feels like a genuinely cathartic step forward.</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Tiny fur ball</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>To hire security guards to keep kids and babies out of the zoo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Father-Daughter Wedding Dance</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>What is this?</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>I made a little cat ball for my niece who was recently born</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Mama watching her chicks</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>It'd be nice if you could make this pig door a little bigger</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Heart</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Most Wholesome Video on Reddit : Cant unsee His reaction</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My Daughter Took Her First Steps Last Night </t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Nostalgia is amazing sometimes</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>So I usually order from the same place and today I told them I was having a bad day and this is another pizza box had at the bottom =)</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>We share the nature: we care each other in it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Child sees her mother for the first time!</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>emroidery</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Its the little things</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>A thoughtful gift</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Good guy news mod gives me another chance</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Awesome journey that a German Shepherd and its owner are taking for a good cause! </t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Boys.....Just smile and fly!! Smile and fly</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>1945: The Day Daddy Came Home. Gunner Hector Murdoch had been gone over four years, most of it as a Prisoner Of War in Singapore. His wife Rosina and son John hadnt known if he was dead or alive. He got home on his Birthday.</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>After 4 very long years, my mother received this message from her pathology report. She is now cancer free!</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>During my wifes daily neighborhood walk a couple days ago, she found a lost wedding ring on the street. And then this just happened.</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Surprise!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>A brother being a bro</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Ive achieved my school grade maths!</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>My daughter made my wife upset, she felt bad so she drew her a picture to say she was sorry.</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Mum just sent me this pic of my Grandpa and his new mate</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Look at what she did to stop this baby's crying</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>After a HARD day of work, me and a few friends/coworkers decided to battle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Toddler hilariously imitates pregnant mum</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>My dad passed away in late December. My brother sent me these photos. It seems google maps caught him being as cool as ever.</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>wholesome neighbor, picking up our trash cans in the rain</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Last month I posted a photo about finally getting married in Vietnam after a 3 year delay due to Covid. A few days after that post we found out that my wife is now pregnant again..my little man is going to be an older brother and the expected due date is on his birthday!</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>I like stuff that rhymes. And convenience.</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Just hit 100 pounds of weight loss :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>The brother we all need</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Happiest pepper ever.</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Foster Puppy</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Perseverance is the key to success</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Lil boi</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>This was too wholesome not to share</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>A mother's reaction after seeing her son has passed the bar exam</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Older Brother convinces parents to gift his younger brother his biggest wish</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Blessed Dogs</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sharing with Friends </t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Just thought this was kinda cute.</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>An average Irish Fella</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>My amazing pet rats Blueberry (gray and white) and Omelet (white) playing vs jumping basketball!</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>The putter patter of his feet on the floor made me so happy</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>For all the hard working Dads out there</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Wholesome</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>A good dad will always be treasured by his children</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Netflix letter in the Chronicle this week (Thunder Bay)</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>A loving husband :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>I want to hangout with her!</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Get the second Dog</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>He wanted to fly, I happily obliged.</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>My two year sobriety transformation!</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>The Pride of an Immigrant Family When Seeing their Child is the Star of a Commercial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>She's officially the little girl's best babysitter of all time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>My granddaughter absolutely loving her lunch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hes just happy to be here folks. </t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Another dumpling</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Fans finishing off the song for Lewis as he struggles with his tourette's</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Man reunites with his doggo</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>He's a professional baller.</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>I've been sh free for 4 months :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Smallest kindness ! Happy birthday!</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>LIKE SO MY DAD HAS TO EAT 2 AT A TIME!</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Makes the commute just that much better</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>This post i saw on my Instagram Reel feed  (@poppopbrucejohnson on Instagram)</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>My husband lost his wallet on our honeymoon. Nearly a month later look whats shows up in the mail!</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>A zoo where the visitors are caged and the animals roam free</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>My neighborhood is amazing! Someone posted about needing to urgently rehouse their pup because theyre moving cross country and couldnt afford to bring him. We responded by raising the money needed in 5hrs! Meatball is staying with his family :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Police stops a motorcyclist and ask him if he could deliver the medicine that was accidentally dropped.</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>A very sad Minion hat lost its owner (they were eventually reunited)</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t xml:space="preserve">She remembered him but not herself </t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Nothing like sweet justice</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>The message my daughter left on my desk after I said I'd had a rough day at work.</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Guess this was their best wedding moment</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Shes finally here!</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Found this picture of me the other day. I was on my way to a friends Halloween themed birthday party and I wanted to be the Wolverine until I put on the costume.</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Just looking majestic</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Your future needs you!</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Dad can't keep hold of the kids from fridge</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>And a great one!</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>[OC] Helped my kindergartner make his first project! He loved it, and learned all about Michael Jordan</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>my miniature aussie is a working breed. apparently he wants to work for Amazon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>She needed help getting home</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>awoooo</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Happy Puppy!</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>My fortune cookie container had 2 fortune cookies!</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Pilot's Final Announcement Gets Emotional</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>I happened to snap a photo right when my partner learned his lost credit card had been found.</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Broke my ankle in November and havent been able to walk but today I took my first steps. It made me happy cry.</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Feels amazing to walk again on two feet and pain-free, after getting my prosthetic leg fixed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>maybe maybe maybe</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>[OC] smile to the world</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Decisions</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Japanese kids successfully cook rice </t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catto found his forever hooman </t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Chris Martin, the leader singer of Coldplay, speaking their fame into existence in 1998.</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>The best cab driver in Las Vegas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Oh Shucks</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>the way my kitty stands</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Just a friendly reminder of the parental impact we have on our kids</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Unfortunately I couldnt spend my birthday with my partner or any of my family, so I made myself a pie from scratch for the first time instead</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Cracks me up everytime!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>What is this?</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>A child rescued by the Heavy Search and Rescue Group HUSAR of Polish firefighters. They came to Turkey a day agter the earthquake, 76 firefighters and 8 rescue dogs. The total numer of people rescued by the team is 12!</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>This cat be chilling</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>This shed in Austria has hearts on the shutters</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Getting unbanned by drawing a picture</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Yesterday was my birthday, I got nothing from no one, wishes and gifts. I was crying all day until I saw this gift from my friend. I needed nothing after it. I was happy for the day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Looks like fun</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Here's a photo of my kitty's first time using her new bed</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>more friend content</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Ex-Game Dev's Response to A Fan's Message (credit: u/VetoSnowbound)</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Ive seen the first image uploaded but not the entire album, sorry if youve seen it all before</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>After 4 months of art block due to anxiety, my 15 yr old drew this for her sister after she asked her for a dinosaur for her birthday.</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Little girl with cerebral palsy has her dream come true of meeting captain America</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Currently my wallpaper. Having a dog has changed my life (for the better)</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>30 kg weight loss wanted to share here.</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Nothing is better than watching children being accepting of others.</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Big dog petting a Pomeranian.</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Juno hopes your having a great day!</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>A fluffle!</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>This kid has lost her backpack and/or glasses at school for the 3rd time this month. BUT she did tape this candy to herself for safe keeping on the bus ride home.</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Dog Memorial tattoo design I made</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Its just too cute</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A memorial commission I recently completed in colored pencils </t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>In India we celebrate our elephant's birthday</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Dancing brings everyone together</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Pig comes running over</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>these korean parents eating chili for the first time</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Post it- lifes smore fun wit you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heaven snowy </t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>10 years free of this burden! Hope this may inspire others, because its so worth it for yourself and your SO!</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>A purrfect fit!</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>The most goofiest and funny dance Ive seen today.</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Was inspired by the daughters kindness. Got it! Has anybody read it yet?</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>In the spirit of inclusiveness, town builds a wheelchair friendly swing for kids</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Its been a hard but very fulfilling ride</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Already passed, but its TRASH PANDAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Why this Russian immigrant is helping Ukrainians resettle in Canada  CBC Radio</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Nap buddies</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>My city names its snow plows</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Napali Coast</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Drs told me I wouldn't be walking by age 35. I turn 50 today!! ...I'm a land surveyor-I basically walk for a living :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Laffy Taffy</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>My boy Rico getting him some Doritos</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Canada eh?!</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Pingu</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">made me smile! Wtyo when I found out it looms like a happy face </t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>This absolutely did make me smile!!! A dream come true for me! Blowing the Whistle of the LNER 4472 Flying Scotsman</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>My 82 year old dad is still clinging on to that Netflix DVD by mail subscription and it cracks me up</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Handful of babies</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>little one trying to corral peeps :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Hamster Escapes From Hungry Cannibals Prison Maze with Traps</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Fool me once, shame on you. Fool me twice, shame on me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>volvo chose lives over money</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'm disabled and when I have an attack my dog, Thor, won't let my mom rub my back. He protects me. I love him! </t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Big W</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>My ranking in school is high!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>This is just beyond awesome! Also hilarious that they had an outside line!</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Once a pontam....</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>As of the 19th, I have been two years free of self harm!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>a post-it from my husband that made my day  (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>My cats favorite form of entertainment</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Monty, an exceptional floof</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Throw back to when Arnold Schwarzenegger stood against a random internet jerk</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Cant argue with that</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Another side of Monty</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The mom's trunk over her baby </t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Me, my big brother and our dad, reunited after a Very long time apart...</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Seniors gift jerseys to favorite school staff</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>True Love is Simple.</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Killian, a Swedish 6 yo golden retriever, saved 17 people after the earthquake in Turkey. Earlier this week, he was invited to the Turkish embassy in Stockholm as a honorary guest. Apparently he was the center of everyone's attention and people brought him treats at a thank you for his service.</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Made dinner for me and my stepdad for the first time in months. It was a hit!</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Deer that was saved from the Louisiana floods is very happy</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Watch till the end :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Started weird. But ended nice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Relationship Goals</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>My dogs fur makes an adorable heart shaped pattern on her belly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t xml:space="preserve">One of the eggs that we were supposed to use for embryo studies hatched. Bro's up and about now </t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Sometimes when my husband goes to the store for me he can't find what I need. He will take a pic and tell me to circle what I want. I didn't believe him that they were sold out! haha</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>i made a friend while i went to the park</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>When I asked my little brother to help me grab some groceries from the car</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Wendys on Wednesdays with the great uncles!</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My pup fell asleep under the covers and when he woke up he crawled out to looked at me like this </t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>did my dog really just flip her hair like that...?</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Ive been on this earth for 30 years and todays the first time Ive noticed braille on some Tupperware</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>my boss gave free clothes to people who lost their home</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Mr. Pickles is a very small chihuahua who was rescued January 2023. He lives with his sister, Ms. Peaches, in their fur-ever home in Tucson Arizona</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Six months pregnant on bedrest. Husband included this note with my lunch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Cat adopts a cat</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Student juggles to prove his sobriety to police</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Just a potcake and her couch</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Student saves classmate after using heimlich, which he learned from bobs burgers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Ohh, now it makes much more sense.</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Las Patronas,a group of mexican women handing food and water off to central american migrants crossing the border.</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Every time I get the sweet spot Loki makes this face </t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>This little boy asked his mom if he could go hug the police officer</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>This is my jam</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Guys I made it!! I never imagined Id ever come this far after battling from hell and back since 2012. Keep going guys, it will all be worth it!</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Wholesome NHL goalie</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Rave and Smiles has no age limit</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>cute Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Sounds painful  Made me giggle when I unpacked these</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Just a cat in a sweater</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>This is what will make the world beautiful for everyone</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>my mom shipped me farm fresh eggs after moving out of state</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>(OC) My 10 year old son overheard my wife and I talking about being understaffed at my emergency department. This was the letter he wrote to my director. We are obviously very proud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Lifes too short to choose tax stuff over skydiving.</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>the sky smiled today. maybe I should too.</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>These two heifers really wanted me to hang around for longer!</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Weve been married for 30 years. Hes having surgery today and this is the first time Ive seen the inside of his wedding ring in all these years because hes never taken it off. Forever And Always indeed!</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Midterms have been exhausting but I took the time to make myself a nice bowl of noodles today and it turned my day around.</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>My parents local library allows you to rent a backpack for adventures, typewriter, telescope, ukulele, projector, cooking supplies, video games, and more</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My wife works at Dunkin' in a small strip of businesses, and some kids from the Dance Studio left her and her coworkers this note for no reason at all </t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Anyone can make the world a better place</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Arriola has been wearing a F**K CANCER shirt for his mother-in-law, currently battling stage 4 lung cancer. Back in October, Arriola gave the shirt to a FC Dallas fan named Erik Tillisch, who was starting chemotherapy. 4 months later, Tillisch returned the shirt to Arriola, cancer-free. </t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Son has the most wholesome reaction to his dad getting him a PS5</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>People stop a tourist from paying in Peshawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Pro footballer with a stammer gives a confident and composed interview.</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Made me smile </t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Our postman comes in to talk to our cat even if he doesnt have a parcel. Today I got this.</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>It looks like he really wants to help.</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Grandpa crocodile was the best.</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Thank you, bees.</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Finally completed mine last weekend</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Really proud of reddit this morning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Cow playing with their ball</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Planted Milkweed in the garden this year</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Tried Polycam with the new iphone</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>I suffer from depression and often think I'm trash. I always tell my boyfriend how I'm Forky and he's Woody. He reminds me that just because I'm different, I'm still loved. I've kept this note in my wallet for the last three years from him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>My sweet ratty Tater Tot is learning to weave!</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herbbie, 7 months old, takes her neighbourhood watch duties very seriously </t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Brother's love</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Dumplingsaurus Steax</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Been feeling a bit run down and sad, a lovely lady on a Facebook group Im on made me this because I said I liked it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Spiritwalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Injured my ankle on a leg press machine so my friend left me this message</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Wholesome friendship</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Best Bully Ever</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>What Really Happens at The American Legion in Cheverly, MD</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>My Dad upgraded his flip phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>A few nice laughs with my new best friend :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>I once was a passionate, talented photographer - I havent done a shoot in years. Yesterday BF and I took our dog to the park and he humored me with a few poses - I cried actual tears when I saw the results. Dont ever abandon your natural talents - they never abandon you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>When customers refuse to let you leave without snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Life, full circle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This actually made my day! </t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Christmas Carnival Crowd makes way for ambulance and starts dancing again</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Come and see the cute little lamb, a cute animal that came to Xinjiang when I was traveling there.</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>On a hike and found this uplifting tiny post-it!</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>realized he was being filmed while busting some absolute swagger moves</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Hope all you precious people had a chill and peaceful weekend. Lovely, Happy n Funny week to all. Keep Smiling:))</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>My friend made her fisherman dad a birthday snacklebox.</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>My nephew the week he learned about the solar system and siri</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Two humans raised right</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>My cat :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>A little girl (maybe 5-6) got on the bus and immediately walked up to me and handed me a flower today</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Two-person jump rope routine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>My birthday card this year from my family, the message really hits different as a trans guy  its been about 7 years since Ive been out but little things like this still get to me</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Next level pitch</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Dog cuddling a horse</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>This Uber Lady Made Me Smile</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Christopher Lloyd, 84, Michael J. Fox, 61, Lea Thompson, 61 and Tom Wilson, 63. February 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>I work at a doggy daycare and one of my coworkers left this for me in my station</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>That's the way it's supposed to be</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Even the dog thinks they did a great job!</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Winning Wednesday: I blew out part of my spine 3 years ago and the treatment I started 6 months ago has helped me start to get my life back. Stay motivated, friends (and deadlift carefully!)</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Made me smile at a red light</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>I feel really proud of this cheesecake</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>More than 37 years after the release of the original Back To The Future, stars Michael J. Fox, Christopher Lloyd, Lea Thompson and Tom Wilson reunited in Portland.</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Pup learns to swim</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>My best friend bowling his first ever perfect game</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>weird way to eat a sausage</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>this is sweet</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>One of the greatest gifts a parent can give their child is their presence. CT@wholeparent</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Found this case on Amazon. Im in love. Its goofy but it #MadeMeSmile</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I saw a dog and a dolphin swim together today and it made my day! I hope it makes yours too </t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>I went to see the decluttering of stuffs by my grandma, when I found this photo along it (further context at comments)</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Training puppy</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>wholesome</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>What a cute japenese sir</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Squirrels play a game of tag</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>Beatboxing with the doggo!</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>When you get to sleep in a bunk bed for the first time ever</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>Yoga done right, mixed with some flamingo..</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>meow (OC)</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>When you have some free time</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>Wholesome smiley faces on these cupboards</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>My 12 year old son wrote this blurb in art class for why he chose to paint a dove and his teacher was impressed with his maturity and ability to see things 12 year olds usually dont (especially in rural Oklahoma).</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Chihuahua and harmonica notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Kids</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Found a reminder to smile in the studio this morning :) Happy Wednesday guys!</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Pup swims wearing life vest</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Story time (Caution - loud laugh)</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>My husband sent the meme to our son and he came back with...</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>My cat Sunny hoping to get a lil taste of the pączki. Happy Fat Tuesday everyone!</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Amazon also delivers smiles with their deliveries. #freesmiles</t>
         </is>
       </c>
     </row>
